--- a/biology/Zoologie/Elachocharax/Elachocharax.xlsx
+++ b/biology/Zoologie/Elachocharax/Elachocharax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elachocharax est un genre de poissons téléostéens de la famille des Crenuchidae et de l'ordre des Characiformes. Ils sont originaires de bassins de l'Amazone et de l'Orénoque en Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (16 juin 2015)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (16 juin 2015):
 Elachocharax geryi Weitzman &amp; Kanazawa, 1978
 Elachocharax junki (Géry, 1971)
 Elachocharax mitopterus Weitzman, 1986
